--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51149-2025</t>
+          <t>A 27330-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45947</v>
+        <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,19 +1023,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1047,15 +1047,112 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp
+Grangråticka
+Kopparspindling
+Tvillingspindling
+Frygisk spindling
+Rosenticka
+Skarp dropptaggsvamp
+Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51149-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45947</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Läderdoftande fingersvamp
 Svart taggsvamp
@@ -1067,125 +1164,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27330-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45812.60934027778</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Bitter taggsvamp
-Grangråticka
-Kopparspindling
-Tvillingspindling
-Frygisk spindling
-Rosenticka
-Skarp dropptaggsvamp
-Tallfingersvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3949-2025</t>
+          <t>A 26681-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45684</v>
+        <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,14 +1302,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1318,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,15 +1332,105 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Nästrot
+Skogsknipprot
+Tibast
+Tvåblad
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3949-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Tvåblad
@@ -1345,123 +1440,28 @@
 Ängsnycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26681-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45810.42891203704</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Nästrot
-Skogsknipprot
-Tibast
-Tvåblad
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34798-2024</t>
+          <t>A 70017-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45526</v>
+        <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,25 +1764,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>13.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1794,418 +1789,423 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61693-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 34798-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,14 +2578,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,31 +2603,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>18.6</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2637,45 +2637,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>18.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2727,31 +2727,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,14 +2848,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,11 +2867,16 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2902,49 +2907,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45442</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,16 +2957,11 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2996,31 +2992,35 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45771</v>
+        <v>45561</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3438,11 +3438,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44803</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45309</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3560,13 +3560,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3628,7 +3623,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3665,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3690,7 +3685,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3727,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3752,7 +3747,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3789,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45810</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3814,7 +3809,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3851,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3872,11 +3867,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10.1</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3913,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3938,7 +3933,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3975,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4000,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4037,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4058,11 +4053,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4099,14 +4094,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4124,7 +4119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4161,14 +4156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45309</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4180,8 +4175,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4218,14 +4218,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4280,14 +4280,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4299,8 +4299,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4337,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4358,11 +4363,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4399,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4418,8 +4423,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4456,14 +4466,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4477,11 +4487,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4518,14 +4528,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4553,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4580,14 +4590,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4599,8 +4609,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4637,14 +4652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4656,8 +4671,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4694,14 +4714,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4713,13 +4733,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4756,14 +4771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45161</v>
+        <v>45309</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4775,13 +4790,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4818,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4843,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4880,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4905,7 +4915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4942,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4967,7 +4977,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5004,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5023,13 +5033,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5066,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5087,11 +5092,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5133,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5147,13 +5152,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5211,11 +5211,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5314,14 +5314,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5438,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5562,14 +5562,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5686,14 +5686,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5748,14 +5748,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5810,14 +5810,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>11.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5996,14 +5996,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6058,14 +6058,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6306,14 +6306,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6325,13 +6325,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6368,14 +6363,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>44970</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6393,7 +6388,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6430,14 +6425,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45958</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6455,7 +6450,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6492,14 +6487,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45174</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6517,7 +6512,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6554,14 +6549,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45309</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6573,8 +6568,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6611,14 +6611,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>44803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6673,14 +6673,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44970</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6735,14 +6735,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,8 +6754,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6792,14 +6797,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45428</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,8 +6816,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6849,14 +6859,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,13 +6878,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6911,14 +6916,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6936,7 +6941,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45684</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,8 +6997,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7030,14 +7040,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7055,7 +7065,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7092,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7117,7 +7127,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7154,14 +7164,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45561</v>
+        <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7175,11 +7185,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7216,14 +7226,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44417</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7235,8 +7245,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7273,14 +7288,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45174</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7294,11 +7309,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7335,14 +7350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45561</v>
+        <v>46002.503125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7356,11 +7371,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7397,14 +7412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45762</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7418,11 +7433,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7459,14 +7474,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7478,8 +7493,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7516,14 +7536,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7535,8 +7555,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7573,14 +7598,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45771</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7598,7 +7623,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>10.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7635,14 +7660,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45785</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7660,7 +7685,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7697,14 +7722,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7759,14 +7784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7784,7 +7809,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7821,14 +7846,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7846,7 +7871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7883,14 +7908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7902,13 +7927,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7945,14 +7965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45684</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7964,13 +7984,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8007,14 +8022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8028,11 +8043,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8069,14 +8084,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8094,7 +8109,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8131,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8156,7 +8171,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8193,14 +8208,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>44417</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8212,13 +8227,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8255,14 +8265,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8274,13 +8284,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8322,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8338,11 +8343,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8384,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45174</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8400,11 +8405,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8446,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8466,7 +8471,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8528,7 +8533,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8570,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45428</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,13 +8589,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45785</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>46002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45561</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45309</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45309</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44970</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>45684</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44417</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>45174</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45428</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45785</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>46002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45561</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>45309</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45309</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44970</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>45684</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44417</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>45174</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45428</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45785</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 27330-2025</t>
+          <t>A 51149-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45812.60934027778</v>
+        <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,19 +1023,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1047,15 +1047,112 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp
+Svart taggsvamp
+Ullticka
+Mindre märgborre
+Mörk husmossa
+Platt fjädermossa
+Stubbspretmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27330-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45812.60934027778</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Bitter taggsvamp
 Grangråticka
@@ -1067,125 +1164,28 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 51149-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45947</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Läderdoftande fingersvamp
-Svart taggsvamp
-Ullticka
-Mindre märgborre
-Mörk husmossa
-Platt fjädermossa
-Stubbspretmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26681-2025</t>
+          <t>A 3949-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45810.42891203704</v>
+        <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,19 +1302,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1323,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1332,15 +1327,110 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Tvåblad
+Fläcknycklar
+Kärrknipprot
+Nattviol
+Ängsnycklar</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26681-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45810.42891203704</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Nästrot
@@ -1350,118 +1440,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3949-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Tvåblad
-Fläcknycklar
-Kärrknipprot
-Nattviol
-Ängsnycklar</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 34798-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44533</v>
+        <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,20 +1764,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1789,423 +1794,418 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Trana
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 58480-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45985.64805555555</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 61693-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46002</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 62278-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46006.63202546296</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>6.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 34798-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,14 +2398,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44623</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,25 +2417,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2450,38 +2445,42 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
@@ -2495,7 +2494,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,14 +2577,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45442</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2602,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2612,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2630,52 +2629,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,31 +2692,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18.6</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2727,45 +2726,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,17 +2782,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2817,45 +2816,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45442</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2873,19 +2872,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>18.6</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2897,55 +2896,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2957,8 +2956,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>12.2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2970,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2982,45 +2986,41 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45561</v>
+        <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,13 +3374,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3412,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45762</v>
+        <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3436,13 +3431,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3469,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>45161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3494,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3531,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45309</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3560,8 +3550,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3598,14 +3593,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3685,7 +3680,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3717,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3747,7 +3742,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3779,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3809,7 +3804,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3841,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3867,11 +3862,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3903,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3929,11 +3924,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3965,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3995,7 +3990,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4027,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4057,7 +4052,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4094,14 +4089,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4119,7 +4114,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4156,14 +4151,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4181,7 +4176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4218,14 +4213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45810</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4243,7 +4238,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4280,14 +4275,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4300,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4342,14 +4337,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45810</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4363,11 +4358,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.1</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4399,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,11 +4420,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4466,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4487,11 +4482,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4548,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4590,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4611,11 +4606,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4652,14 +4647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4714,14 +4709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4733,8 +4728,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4771,14 +4771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45309</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4790,8 +4790,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>44970</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4858,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,11 +4916,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4957,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,13 +4976,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5090,13 +5090,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5133,14 +5128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45771</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5152,8 +5147,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5314,14 +5314,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5438,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>11.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5562,14 +5562,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5686,14 +5686,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5748,14 +5748,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5810,14 +5810,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45958</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5996,14 +5996,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45174</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6058,14 +6058,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6139,13 +6139,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6182,14 +6177,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45958</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6207,7 +6202,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6244,14 +6239,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6264,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6325,8 +6320,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6363,14 +6363,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44970</v>
+        <v>45428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6382,13 +6382,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6425,14 +6420,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6450,7 +6445,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6487,14 +6482,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6506,13 +6501,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6549,14 +6539,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6574,7 +6564,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6611,14 +6601,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44803</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6636,7 +6626,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6673,14 +6663,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6698,7 +6688,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6735,14 +6725,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6760,7 +6750,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6797,14 +6787,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6822,7 +6812,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6859,14 +6849,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6878,8 +6868,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6916,14 +6911,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6937,11 +6932,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6978,14 +6973,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6999,11 +6994,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7040,14 +7035,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45684</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7059,13 +7054,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7092,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46002.503125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7123,11 +7113,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7171,7 +7161,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7226,14 +7216,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7251,7 +7241,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7288,14 +7278,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7309,11 +7299,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7350,14 +7340,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46002.503125</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7371,11 +7361,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7412,14 +7402,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7433,11 +7423,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7474,14 +7464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7495,11 +7485,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.1</v>
+        <v>10.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7536,14 +7526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7561,7 +7551,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7598,14 +7588,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7613,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7660,14 +7650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7685,7 +7675,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7722,14 +7712,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7747,7 +7737,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7784,14 +7774,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45561</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7809,7 +7799,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7846,14 +7836,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45161</v>
+        <v>44417</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7865,13 +7855,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7908,14 +7893,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45174</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7927,8 +7912,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7965,14 +7955,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45684</v>
+        <v>45561</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7984,8 +7974,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8022,14 +8017,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45762</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8043,11 +8038,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8084,14 +8079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8103,13 +8098,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8146,14 +8136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45561</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8165,13 +8155,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8208,14 +8193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44417</v>
+        <v>45771</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,8 +8212,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8265,14 +8255,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45785</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,8 +8274,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8322,14 +8317,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8347,7 +8342,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8384,14 +8379,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45174</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8409,7 +8404,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8446,14 +8441,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8471,7 +8466,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8508,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45174</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8529,11 +8524,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8570,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45428</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,8 +8584,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45771</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45785</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51149-2025</t>
+          <t>A 27330-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45947</v>
+        <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,19 +1023,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1047,15 +1047,112 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp
+Grangråticka
+Kopparspindling
+Tvillingspindling
+Frygisk spindling
+Rosenticka
+Skarp dropptaggsvamp
+Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51149-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45947</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Läderdoftande fingersvamp
 Svart taggsvamp
@@ -1067,125 +1164,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27330-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45812.60934027778</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Bitter taggsvamp
-Grangråticka
-Kopparspindling
-Tvillingspindling
-Frygisk spindling
-Rosenticka
-Skarp dropptaggsvamp
-Tallfingersvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3949-2025</t>
+          <t>A 26681-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45684</v>
+        <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,14 +1302,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1318,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,15 +1332,105 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Nästrot
+Skogsknipprot
+Tibast
+Tvåblad
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3949-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Tvåblad
@@ -1345,123 +1440,28 @@
 Ängsnycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26681-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45810.42891203704</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Nästrot
-Skogsknipprot
-Tibast
-Tvåblad
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34798-2024</t>
+          <t>A 70017-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45526</v>
+        <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,25 +1764,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>13.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1794,432 +1789,437 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61693-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 34798-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58485-2025</t>
+          <t>A 21007-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45985.65565972222</v>
+        <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Tibast</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 58485-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45985.65565972222</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Myskmadra</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 21007-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45777</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Tibast</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,19 +2418,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2442,45 +2442,41 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
@@ -2494,7 +2490,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,14 +2573,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45442</v>
+        <v>44623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2594,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2611,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2629,38 +2625,38 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
@@ -2674,7 +2670,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2757,14 +2753,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44623</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,20 +2774,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>18.6</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2806,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2816,45 +2812,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,17 +2864,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>18.6</v>
+        <v>12.2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2906,45 +2902,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45442</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,24 +2954,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12.2</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
@@ -2986,55 +2982,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,20 +3043,20 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -3071,41 +3067,45 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44803</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,8 +3374,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3412,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45309</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3431,8 +3436,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3469,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45161</v>
+        <v>45810</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3504,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3531,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45174</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3556,7 +3566,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3593,14 +3603,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3618,7 +3628,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3655,14 +3665,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3676,11 +3686,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>10.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3717,14 +3727,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45428</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3736,13 +3746,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45771</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3804,7 +3809,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3841,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45762</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,11 +3867,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3903,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45771</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3924,11 +3929,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3965,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45309</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3984,13 +3989,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45785</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4151,14 +4151,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4275,14 +4275,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4337,14 +4337,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45810</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4399,14 +4399,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4420,11 +4420,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.1</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4461,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4666,13 +4666,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4709,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4734,7 +4729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4771,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4796,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4833,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44970</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4895,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4957,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4977,7 +4972,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5014,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5033,8 +5028,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45771</v>
+        <v>45309</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5147,13 +5147,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5185,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5210,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5247,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,11 +5268,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5314,14 +5309,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,11 +5330,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5371,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5463,7 +5458,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5500,14 +5495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5525,7 +5520,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11.4</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5562,14 +5557,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,11 +5578,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5619,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5649,7 +5644,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5686,14 +5681,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5711,7 +5706,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5748,14 +5743,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5773,7 +5768,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5810,14 +5805,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5897,7 +5892,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5934,14 +5929,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45958</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5959,7 +5954,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5996,14 +5991,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45174</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6021,7 +6016,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6058,14 +6053,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6078,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6115,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6139,8 +6134,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>11.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6301,14 +6301,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6320,13 +6320,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6363,14 +6358,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45428</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6382,8 +6377,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6420,14 +6420,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>44970</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6482,14 +6482,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6499,6 +6499,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -6539,14 +6544,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45958</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6564,7 +6569,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6601,14 +6606,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6626,7 +6631,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6663,14 +6668,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6688,7 +6693,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6725,14 +6730,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>44803</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6750,7 +6755,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6787,14 +6792,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6849,14 +6854,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6870,11 +6875,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6911,14 +6916,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6932,11 +6937,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6973,14 +6978,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6994,11 +6999,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7035,14 +7040,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45684</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7054,8 +7059,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7092,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7109,11 +7119,6 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -7154,14 +7159,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7175,11 +7180,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7216,14 +7221,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7237,11 +7242,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7278,14 +7283,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7303,7 +7308,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7340,14 +7345,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>46044.626875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7361,11 +7366,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7402,14 +7407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7423,11 +7428,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7464,14 +7469,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7485,11 +7490,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7526,14 +7531,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>46002.503125</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7547,11 +7552,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7588,14 +7593,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7609,11 +7614,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7650,14 +7655,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7671,11 +7676,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7712,14 +7717,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7742,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7774,14 +7779,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45561</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7799,7 +7804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>10.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7836,14 +7841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44417</v>
+        <v>45161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7855,8 +7860,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7893,14 +7903,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45174</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7918,7 +7928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7955,14 +7965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45561</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7980,7 +7990,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8017,14 +8027,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45762</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8042,7 +8052,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8079,14 +8089,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8099,7 +8109,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8136,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8156,7 +8166,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8193,14 +8203,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45771</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8214,11 +8224,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8255,14 +8265,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45785</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8280,7 +8290,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8327,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45561</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8342,7 +8352,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8414,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8451,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8460,13 +8470,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8522,13 +8527,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 34798-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44533</v>
+        <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,20 +1764,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1789,423 +1794,418 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Trana
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 58480-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45985.64805555555</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 61693-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46002</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 62278-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46006.63202546296</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>6.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 34798-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,14 +2398,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,20 +2418,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2442,55 +2442,59 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,13 +2506,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>11.2</v>
+        <v>6.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2542,45 +2541,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44623</v>
+        <v>45442</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2593,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2607,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2625,52 +2624,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>44623</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,11 +2683,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2722,45 +2721,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,10 +2777,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>18.6</v>
+        <v>11.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2812,45 +2811,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,21 +2863,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>12.2</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2902,45 +2901,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45442</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,19 +2957,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>18.6</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2982,55 +2981,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3042,8 +3041,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>12.2</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3067,45 +3071,41 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3174,14 +3174,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29116-2022</t>
+          <t>A 36282-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44750</v>
+        <v>44803</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,13 +3193,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3236,14 +3231,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36282-2022</t>
+          <t>A 29116-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44803</v>
+        <v>44750</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3255,8 +3250,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45309</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3310,11 +3310,6 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3355,14 +3350,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45561</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,13 +3369,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3407,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3438,7 +3428,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3479,14 +3469,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45810</v>
+        <v>44803</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3494,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3531,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45174</v>
+        <v>45161</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3566,7 +3556,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3603,14 +3593,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3628,7 +3618,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3665,14 +3655,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3686,11 +3676,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.1</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3727,14 +3717,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45428</v>
+        <v>45174</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3746,8 +3736,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3779,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45771</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,11 +3800,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3841,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45762</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3871,7 +3866,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3903,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45771</v>
+        <v>45309</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3927,13 +3922,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3960,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45309</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3989,8 +3979,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4027,14 +4022,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45785</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4052,7 +4047,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4089,14 +4084,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4114,7 +4109,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4151,14 +4146,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4172,11 +4167,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4213,14 +4208,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45428</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4232,13 +4227,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4275,14 +4265,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4300,7 +4290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4337,14 +4327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45561</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4352,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4399,14 +4389,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4420,7 +4410,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4461,14 +4451,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,11 +4472,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4523,14 +4513,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4548,7 +4538,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4585,14 +4575,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,11 +4596,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4647,14 +4637,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4666,8 +4656,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4704,14 +4699,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4729,7 +4724,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4766,14 +4761,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4791,7 +4786,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4823,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45762</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4848,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4885,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4915,7 +4910,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,8 +4966,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5009,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45684</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5028,13 +5028,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5090,8 +5085,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45309</v>
+        <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5147,8 +5147,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5185,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5210,7 +5215,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5247,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5266,13 +5271,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,11 +5330,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5371,14 +5371,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45771</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5433,14 +5433,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5495,14 +5495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45561</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5557,14 +5557,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>44417</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5576,13 +5576,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5619,14 +5614,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45174</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5644,7 +5639,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5681,14 +5676,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5700,13 +5695,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5743,14 +5733,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5768,7 +5758,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5805,14 +5795,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45810</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5830,7 +5820,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5867,14 +5857,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5888,11 +5878,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>10.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5929,14 +5919,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5954,7 +5944,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5991,14 +5981,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6012,11 +6002,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6053,14 +6043,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6078,7 +6068,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6115,14 +6105,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6130,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6177,14 +6167,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6196,13 +6186,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6239,14 +6224,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6264,7 +6249,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6301,14 +6286,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45771</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6320,8 +6305,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6358,14 +6348,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6377,13 +6367,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6420,14 +6405,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44970</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6439,13 +6424,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6482,14 +6462,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45785</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6507,7 +6487,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6544,14 +6524,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45958</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6549,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6606,14 +6586,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6631,7 +6611,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6668,14 +6648,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6693,7 +6673,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6730,14 +6710,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44803</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6755,7 +6735,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6792,14 +6772,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6817,7 +6797,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6854,14 +6834,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6879,7 +6859,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>11.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6916,14 +6896,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6941,7 +6921,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6978,14 +6958,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7003,7 +6983,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7040,14 +7020,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7065,7 +7045,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7082,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7119,6 +7099,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -7159,14 +7144,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7184,7 +7169,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7221,14 +7206,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7246,7 +7231,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7283,14 +7268,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7308,7 +7293,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7345,14 +7330,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7366,11 +7351,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7407,14 +7392,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7428,11 +7413,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7469,14 +7454,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7490,11 +7475,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7531,14 +7516,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7552,11 +7537,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7593,14 +7578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7614,11 +7599,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7655,14 +7640,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7676,11 +7661,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7717,14 +7702,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7742,7 +7727,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7779,14 +7764,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7798,13 +7783,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7841,14 +7821,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45161</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7866,7 +7846,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7903,14 +7883,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7928,7 +7908,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7965,14 +7945,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7990,7 +7970,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8027,14 +8007,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8048,7 +8028,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -8089,14 +8069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8108,8 +8088,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8146,14 +8131,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45684</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8165,8 +8150,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8203,14 +8193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>46002.503125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8224,11 +8214,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8265,14 +8255,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>46044.626875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8286,11 +8276,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8327,14 +8317,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45561</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8348,11 +8338,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8389,14 +8379,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8414,7 +8404,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8451,14 +8441,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44417</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,8 +8460,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8508,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,8 +8522,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>5.8</v>
+        <v>10.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45174</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34798-2024</t>
+          <t>A 62278-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45526</v>
+        <v>46006.63202546296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,456 +1770,456 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>13.8</v>
+        <v>6.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61693-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 34798-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21007-2025</t>
+          <t>A 58485-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45777</v>
+        <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 21007-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Tibast</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 58485-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45985.65565972222</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,20 +2417,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2445,56 +2450,52 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,8 +2507,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>6.3</v>
+        <v>11.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2541,45 +2547,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45442</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2597,7 +2603,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2606,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2624,52 +2630,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44623</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,20 +2689,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>18.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2721,45 +2727,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,17 +2779,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2811,45 +2817,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2873,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2876,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2894,52 +2900,52 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,26 +2957,21 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>18.6</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
@@ -2981,55 +2982,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,19 +3046,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>12.2</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3174,14 +3174,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36282-2022</t>
+          <t>A 29116-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44803</v>
+        <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,8 +3193,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3231,14 +3236,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29116-2022</t>
+          <t>A 36282-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44750</v>
+        <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,13 +3255,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45309</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3310,6 +3310,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3350,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3369,8 +3374,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3407,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3428,11 +3438,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3469,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44803</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3504,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3531,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45161</v>
+        <v>45309</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3550,13 +3560,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3593,14 +3598,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3618,7 +3623,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3655,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3680,7 +3685,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3717,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45174</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3742,7 +3747,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,11 +3805,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3848,7 +3853,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3903,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45309</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3922,8 +3927,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3960,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3985,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4022,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4047,7 +4057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4091,7 +4101,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4153,7 +4163,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4208,14 +4218,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45428</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4227,8 +4237,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4265,14 +4280,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4327,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45561</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4348,11 +4363,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4389,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4410,11 +4425,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4451,14 +4466,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4472,11 +4487,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4513,14 +4528,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4538,7 +4553,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4575,14 +4590,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4637,14 +4652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4662,7 +4677,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4699,14 +4714,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4724,7 +4739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4761,14 +4776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4786,7 +4801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4823,14 +4838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45762</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4842,13 +4857,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4885,14 +4895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45309</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4904,13 +4914,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4947,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45810</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4972,7 +4977,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5009,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45684</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5028,8 +5033,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5066,14 +5076,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5087,11 +5097,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5138,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44970</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5153,7 +5163,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5200,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5225,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5262,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,8 +5281,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5309,14 +5324,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5334,7 +5349,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5371,14 +5386,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45771</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5396,7 +5411,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5433,14 +5448,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5473,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5495,14 +5510,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45561</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5514,13 +5529,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5557,14 +5567,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44417</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5577,7 +5587,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5614,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45174</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5633,13 +5643,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5676,14 +5681,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>44970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5695,8 +5700,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5733,14 +5743,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5768,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5795,14 +5805,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45810</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5820,7 +5830,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5857,14 +5867,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,11 +5888,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.1</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5919,14 +5929,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5944,7 +5954,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5981,14 +5991,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6002,11 +6012,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6043,14 +6053,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6068,7 +6078,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6105,14 +6115,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6130,7 +6140,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6167,14 +6177,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6186,8 +6196,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6224,14 +6239,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>44803</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6249,7 +6264,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6286,14 +6301,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45771</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6326,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6348,14 +6363,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6367,8 +6382,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6405,14 +6425,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45958</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6424,8 +6444,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6462,14 +6487,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45785</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6487,7 +6512,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6524,14 +6549,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6549,7 +6574,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6586,14 +6611,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6611,7 +6636,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6648,14 +6673,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6673,7 +6698,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6710,14 +6735,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6735,7 +6760,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6772,14 +6797,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6797,7 +6822,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6834,14 +6859,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6859,7 +6884,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>11.4</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6896,14 +6921,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45161</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6921,7 +6946,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6958,14 +6983,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6983,7 +7008,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7020,14 +7045,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7039,13 +7064,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7082,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7099,11 +7119,6 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -7144,14 +7159,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45684</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7163,13 +7178,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7206,14 +7216,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45958</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7231,7 +7241,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7268,14 +7278,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7289,11 +7299,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7330,14 +7340,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7355,7 +7365,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7392,14 +7402,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7454,14 +7464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>46044.626875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7475,11 +7485,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7516,14 +7526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7537,11 +7547,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7578,14 +7588,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7599,11 +7609,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7640,14 +7650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>46002.503125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7661,11 +7671,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7702,14 +7712,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7723,11 +7733,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7764,14 +7774,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7783,8 +7793,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7821,14 +7836,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45561</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7846,7 +7861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7883,14 +7898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7923,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7945,14 +7960,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7970,7 +7985,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.5</v>
+        <v>10.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8007,14 +8022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>44417</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8026,13 +8041,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8069,14 +8079,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8090,11 +8100,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8131,14 +8141,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8152,11 +8162,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8193,14 +8203,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002.503125</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8214,11 +8224,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8255,14 +8265,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46044.626875</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8274,13 +8284,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8322,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8338,11 +8343,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8384,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45174</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8409,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8446,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8466,7 +8471,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8528,7 +8533,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>10.2</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8570,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45428</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,13 +8589,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45785</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 62278-2025</t>
+          <t>A 61693-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46006.63202546296</v>
+        <v>46002</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,354 +1766,354 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,14 +2578,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2599,20 +2599,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>12.2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2637,45 +2637,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,31 +2693,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18.6</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2727,45 +2727,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>18.6</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2817,31 +2817,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45561</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45561</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>45762</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45309</v>
+        <v>46044.626875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3560,8 +3560,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3598,14 +3603,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45309</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3617,13 +3622,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3681,11 +3681,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>46002.503125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,11 +3805,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3867,11 +3867,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4094,14 +4094,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4218,14 +4218,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4280,14 +4280,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,11 +4301,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4342,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45810</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4487,11 +4487,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4528,14 +4528,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4652,14 +4652,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4714,14 +4714,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4776,14 +4776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4838,14 +4838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4857,8 +4857,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4895,14 +4900,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45309</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4914,8 +4919,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4962,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45810</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4977,7 +4987,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>10.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5014,14 +5024,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5049,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5076,14 +5086,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5101,7 +5111,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>10.1</v>
+        <v>7.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5138,14 +5148,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5173,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5200,14 +5210,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5221,11 +5231,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5262,14 +5272,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,11 +5293,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5324,14 +5334,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5349,7 +5359,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5386,14 +5396,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5411,7 +5421,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5448,14 +5458,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5473,7 +5483,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5510,14 +5520,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5529,8 +5539,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5567,14 +5582,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5586,8 +5601,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5644,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,8 +5663,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5681,14 +5706,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44970</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5706,7 +5731,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5743,14 +5768,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5762,13 +5787,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5805,14 +5825,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5830,7 +5850,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5867,14 +5887,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,13 +5906,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5929,14 +5944,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5954,7 +5969,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5991,14 +6006,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6010,13 +6025,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6053,14 +6063,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45309</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6072,13 +6082,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6115,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6145,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6177,14 +6182,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6202,7 +6207,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6239,14 +6244,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44803</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6264,7 +6269,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6301,14 +6306,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6326,7 +6331,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6363,14 +6368,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6388,7 +6393,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6425,14 +6430,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45958</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6450,7 +6455,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6487,14 +6492,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6512,7 +6517,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6549,14 +6554,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6574,7 +6579,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>11.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6611,14 +6616,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6636,7 +6641,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6673,14 +6678,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6698,7 +6703,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6735,14 +6740,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6760,7 +6765,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6797,14 +6802,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45958</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6822,7 +6827,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6859,14 +6864,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6884,7 +6889,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6921,14 +6926,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45161</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6946,7 +6951,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6983,14 +6988,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7008,7 +7013,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7045,14 +7050,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7064,8 +7069,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7112,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7121,8 +7131,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7159,14 +7174,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45684</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7178,8 +7193,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7216,14 +7236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7241,7 +7261,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7278,14 +7298,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7297,13 +7317,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7340,14 +7355,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>44970</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7365,7 +7380,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7402,14 +7417,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7427,7 +7442,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7464,14 +7479,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46044.626875</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7485,11 +7500,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7526,14 +7541,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7545,13 +7560,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7588,14 +7598,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7609,11 +7619,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7650,14 +7660,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7671,11 +7681,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7712,14 +7722,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>44803</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7733,11 +7743,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7774,14 +7784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7795,11 +7805,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7836,14 +7846,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45561</v>
+        <v>45161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7861,7 +7871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7898,14 +7908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7917,13 +7927,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7960,14 +7965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45684</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7979,13 +7984,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>10.2</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8022,14 +8022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44417</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8041,8 +8041,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8079,14 +8084,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8104,7 +8109,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8141,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8166,7 +8171,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8203,14 +8208,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>44417</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8222,13 +8227,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8272,7 +8272,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>45174</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45428</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45785</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 61693-2025</t>
+          <t>A 58480-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46002</v>
+        <v>45985.64805555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1797,323 +1797,323 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61693-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,14 +2578,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2599,21 +2599,21 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12.2</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2637,45 +2637,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>18.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2727,45 +2727,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>18.6</v>
+        <v>12.2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2817,31 +2817,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45561</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45762</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3562,11 +3562,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>45309</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3681,11 +3681,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,11 +3805,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3867,11 +3867,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45810</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4094,14 +4094,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4342,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45810</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4487,11 +4487,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4528,14 +4528,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4776,14 +4776,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4838,14 +4838,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,11 +4859,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4919,13 +4919,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4962,14 +4957,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4987,7 +4982,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>10.2</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5031,7 +5026,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5093,7 +5088,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5148,14 +5143,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5167,13 +5162,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5217,7 +5207,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5279,7 +5269,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5334,14 +5324,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5396,14 +5386,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5421,7 +5411,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5458,14 +5448,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5483,7 +5473,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5520,14 +5510,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5545,7 +5535,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5582,14 +5572,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5607,7 +5597,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5644,14 +5634,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5669,7 +5659,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5706,14 +5696,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5731,7 +5721,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5768,14 +5758,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5785,6 +5775,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -5825,14 +5820,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5844,13 +5839,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5887,14 +5877,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5906,8 +5896,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5944,14 +5939,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5964,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6006,14 +6001,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45309</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6021,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6063,14 +6058,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45309</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6082,8 +6077,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>11.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6306,14 +6306,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6368,14 +6368,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45958</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6430,14 +6430,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6492,14 +6492,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6554,14 +6554,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11.4</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6616,14 +6616,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6678,14 +6678,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,13 +6697,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6740,14 +6735,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6765,7 +6760,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6802,14 +6797,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45958</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6827,7 +6822,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6864,14 +6859,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6889,7 +6884,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6926,14 +6921,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6945,13 +6940,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6988,14 +6978,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>46044.626875</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7009,11 +6999,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7050,14 +7040,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>44970</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7075,7 +7065,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7112,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7133,11 +7123,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7174,14 +7164,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7195,11 +7185,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7236,14 +7226,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>46002.503125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7257,11 +7247,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7298,14 +7288,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7317,8 +7307,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7355,14 +7350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44970</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7376,11 +7371,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7417,14 +7412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7442,7 +7437,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7479,14 +7474,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7504,7 +7499,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>10.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7541,14 +7536,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7560,8 +7555,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7598,14 +7598,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7660,14 +7660,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>44803</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7722,14 +7722,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44803</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7784,14 +7784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7846,14 +7846,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45161</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7908,14 +7908,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7927,8 +7927,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7965,14 +7970,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45684</v>
+        <v>45161</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7984,8 +7989,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8022,14 +8032,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8041,13 +8051,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8084,14 +8089,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45684</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8103,13 +8108,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8146,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45561</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8167,11 +8167,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44417</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,8 +8227,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8265,14 +8270,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45561</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,8 +8289,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8322,14 +8332,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>44417</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,13 +8351,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8384,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45174</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8403,13 +8408,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8446,14 +8446,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8508,14 +8508,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8570,14 +8570,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45428</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8589,8 +8589,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,126 +8632,183 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
+          <t>A 41276-2023</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A 19304-2024</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
           <t>A 19697-2025</t>
         </is>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B121" s="1" t="n">
         <v>45771</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
+      <c r="C121" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G119" t="n">
+      <c r="G121" t="n">
         <v>3.3</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" s="2" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>A 22223-2025</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>45785</v>
-      </c>
-      <c r="C120" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" s="2" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 27330-2025</t>
+          <t>A 51149-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45812.60934027778</v>
+        <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,19 +1023,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1047,15 +1047,112 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp
+Svart taggsvamp
+Ullticka
+Mindre märgborre
+Mörk husmossa
+Platt fjädermossa
+Stubbspretmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27330-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45812.60934027778</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Bitter taggsvamp
 Grangråticka
@@ -1067,125 +1164,28 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 51149-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45947</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Läderdoftande fingersvamp
-Svart taggsvamp
-Ullticka
-Mindre märgborre
-Mörk husmossa
-Platt fjädermossa
-Stubbspretmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1841,14 +1841,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 61693-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44533</v>
+        <v>46002</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,20 +1860,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1888,338 +1893,333 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 34798-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Trana
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 34798-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58485-2025</t>
+          <t>A 21007-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45985.65565972222</v>
+        <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Tibast</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 58485-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45985.65565972222</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Myskmadra</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 21007-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45777</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Tibast</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44623</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,20 +2419,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>11.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2457,45 +2457,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,17 +2513,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.2</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2547,45 +2547,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2597,25 +2597,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2630,38 +2625,42 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
@@ -2675,7 +2674,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2758,14 +2757,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2779,24 +2778,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -2807,55 +2806,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45442</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,14 +2868,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>12.2</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2885,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2897,55 +2896,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>44623</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2957,20 +2956,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2985,42 +2989,38 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45561</v>
+        <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,13 +3374,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3412,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45785</v>
+        <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3442,7 +3437,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3474,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3499,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3536,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45762</v>
+        <v>45785</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3566,7 +3561,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45309</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3622,8 +3617,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>10.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45810</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>11.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,14 +4156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45309</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4175,13 +4175,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4218,14 +4213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4237,13 +4232,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4280,14 +4270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4301,11 +4291,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4342,14 +4332,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4357,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4394,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4419,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4466,14 +4456,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4487,11 +4477,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4528,14 +4518,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4543,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4590,14 +4580,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4605,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4652,14 +4642,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4667,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4714,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45958</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4776,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4838,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,11 +4849,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4900,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4919,8 +4909,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4957,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4982,7 +4977,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5019,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45161</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5044,7 +5039,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5081,14 +5076,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,11 +5097,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5143,14 +5138,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5162,8 +5157,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5200,14 +5200,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5221,11 +5221,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5281,13 +5281,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5324,14 +5319,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5343,13 +5338,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5386,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5411,7 +5401,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5448,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5473,7 +5463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5510,14 +5500,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5535,7 +5525,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5572,14 +5562,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5597,7 +5587,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5634,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5659,7 +5649,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5696,14 +5686,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5721,7 +5711,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5758,14 +5748,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5783,7 +5773,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5820,14 +5810,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5839,8 +5829,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5877,14 +5872,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,11 +5893,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5939,14 +5934,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,11 +5955,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6001,14 +5996,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45309</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6020,8 +6015,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6058,14 +6058,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6244,14 +6244,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6306,14 +6306,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6368,14 +6368,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45958</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6430,14 +6430,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6492,14 +6492,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6554,14 +6554,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6573,13 +6573,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6616,14 +6611,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6641,7 +6636,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6678,14 +6673,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,8 +6692,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6735,14 +6735,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6797,14 +6797,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6859,14 +6859,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6921,14 +6921,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>44970</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6940,8 +6940,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6978,14 +6983,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46044.626875</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6997,13 +7002,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44970</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7061,11 +7061,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7164,14 +7164,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,14 +7288,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>46044.626875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7412,14 +7412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45771</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7474,14 +7474,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>10.2</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7536,14 +7536,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7598,14 +7598,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7660,14 +7660,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44803</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7784,14 +7784,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7805,11 +7805,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7846,14 +7846,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>46071.36576388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7970,14 +7970,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45161</v>
+        <v>45174</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8032,14 +8032,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45309</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8089,14 +8089,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45684</v>
+        <v>45428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8146,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8167,11 +8167,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8270,14 +8270,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45561</v>
+        <v>45684</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8289,13 +8289,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8332,14 +8327,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44417</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8351,8 +8346,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8389,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8408,8 +8408,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8446,14 +8451,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45561</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8471,7 +8476,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8508,14 +8513,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45174</v>
+        <v>44417</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,13 +8532,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8570,14 +8570,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45174</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8632,14 +8632,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45174</v>
+        <v>45561</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8694,14 +8694,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45428</v>
+        <v>45762</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,8 +8713,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8751,14 +8756,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45771</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8770,13 +8775,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26681-2025</t>
+          <t>A 3949-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45810.42891203704</v>
+        <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,19 +1302,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1323,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1332,15 +1327,110 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Tvåblad
+Fläcknycklar
+Kärrknipprot
+Nattviol
+Ängsnycklar</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26681-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45810.42891203704</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Nästrot
@@ -1350,118 +1440,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3949-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Tvåblad
-Fläcknycklar
-Kärrknipprot
-Nattviol
-Ängsnycklar</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 58480-2025</t>
+          <t>A 70017-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45985.64805555555</v>
+        <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,19 +1764,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1803,423 +1798,428 @@
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 61693-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>46002</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 34798-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45526</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>13.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21007-2025</t>
+          <t>A 58485-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45777</v>
+        <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 21007-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Tibast</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 58485-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45985.65565972222</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,21 +2419,21 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2457,45 +2457,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>11.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2547,45 +2547,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2597,20 +2597,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2625,42 +2630,38 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
@@ -2674,7 +2675,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2757,14 +2758,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45442</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,14 +2779,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>12.2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2794,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2806,55 +2807,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,24 +2869,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>12.2</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
@@ -2896,55 +2897,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44623</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,25 +2957,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2989,38 +2985,42 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44803</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,8 +3374,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3412,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771</v>
+        <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3442,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3474,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45309</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3493,13 +3498,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45785</v>
+        <v>45771</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45810</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.1</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,11 +3805,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3908,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4094,14 +4094,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45309</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4175,8 +4175,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4213,14 +4218,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4232,8 +4237,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4270,14 +4280,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4295,7 +4305,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4332,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4357,7 +4367,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4394,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4419,7 +4429,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4456,14 +4466,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4475,13 +4485,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4518,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4539,11 +4544,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>10.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45309</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4599,13 +4604,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45958</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,11 +4725,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4766,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,11 +4849,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4909,13 +4909,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,13 +4966,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5014,14 +5004,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45161</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5029,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5076,14 +5066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5097,11 +5087,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5138,14 +5128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5153,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5200,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5225,7 +5215,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5262,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5281,8 +5271,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5319,14 +5314,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5338,8 +5333,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5438,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>11.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5562,14 +5562,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,13 +5643,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5686,14 +5681,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>44970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5711,7 +5706,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5748,14 +5743,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5773,7 +5768,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5810,14 +5805,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45958</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5893,11 +5888,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5934,14 +5929,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,11 +5950,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5996,14 +5991,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>44803</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6021,7 +6016,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6058,14 +6053,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6078,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6120,14 +6115,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6145,7 +6140,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6182,14 +6177,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6207,7 +6202,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6244,14 +6239,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6264,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6326,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6368,14 +6363,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6393,7 +6388,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6430,14 +6425,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6449,13 +6444,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6492,14 +6482,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6554,14 +6544,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6573,8 +6563,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6611,14 +6606,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6636,7 +6631,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6673,14 +6668,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>46044.626875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6694,11 +6689,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6735,14 +6730,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6756,11 +6751,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6797,14 +6792,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6818,11 +6813,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6859,14 +6854,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>46002.503125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6880,11 +6875,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6921,14 +6916,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44970</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6942,11 +6937,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6983,14 +6978,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7002,8 +6997,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7061,11 +7061,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7102,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7164,14 +7164,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7185,11 +7185,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7226,14 +7226,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46002.503125</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -7288,14 +7288,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46044.626875</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7309,11 +7309,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7350,14 +7350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7371,11 +7371,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7412,14 +7412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45771</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7431,13 +7431,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7474,14 +7469,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7493,13 +7488,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7536,14 +7526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7557,11 +7547,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7598,14 +7588,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7613,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7660,14 +7650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7685,7 +7675,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7722,14 +7712,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45561</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7747,7 +7737,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7784,14 +7774,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>44417</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7803,13 +7793,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7846,14 +7831,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7871,7 +7856,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7908,14 +7893,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9394-2026</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46071.36576388889</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7927,13 +7912,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7970,14 +7950,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45174</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7995,7 +7975,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8032,14 +8012,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45309</v>
+        <v>45174</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,8 +8031,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8089,14 +8074,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45428</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8108,8 +8093,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8146,14 +8136,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8171,7 +8161,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8208,14 +8198,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,13 +8217,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8270,14 +8255,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45684</v>
+        <v>45771</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8289,8 +8274,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8327,14 +8317,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45785</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8352,7 +8342,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8389,14 +8379,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8414,7 +8404,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8451,14 +8441,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45561</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8476,7 +8466,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8513,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44417</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8532,8 +8522,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8570,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45174</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8595,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8632,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45561</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8653,11 +8648,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8694,14 +8689,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45762</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8719,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8756,14 +8751,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,8 +8770,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>46002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45309</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45771</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45309</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45958</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>44803</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>45561</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44417</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>46071.36576388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45174</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45771</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45785</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>46002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45309</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45771</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45309</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44970</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45958</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>44803</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45161</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>45561</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44417</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>46071.36576388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45174</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>45174</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45771</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45785</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45947</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 34798-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44533</v>
+        <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,20 +1764,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1789,437 +1794,432 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Trana
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 58480-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45985.64805555555</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 61693-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46002</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 62278-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46006.63202546296</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>6.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 34798-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58485-2025</t>
+          <t>A 21007-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45985.65565972222</v>
+        <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Tibast</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 58485-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45985.65565972222</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Myskmadra</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 21007-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45777</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Tibast</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44623</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,25 +2417,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2450,52 +2445,56 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>45442</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,20 +2512,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2537,55 +2536,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>44623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2599,11 +2598,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2637,45 +2636,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,16 +2686,11 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>18.6</v>
+        <v>6.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2727,45 +2721,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2779,17 +2773,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2817,45 +2811,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45442</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2873,7 +2867,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2882,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2900,52 +2894,52 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2957,20 +2951,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>18.6</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2982,59 +2981,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,14 +3041,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>12.2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45561</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45762</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45309</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3498,8 +3498,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3536,14 +3541,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45771</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3561,7 +3566,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3598,14 +3603,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>44970</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3623,7 +3628,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3665,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3679,13 +3684,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45174</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,11 +3805,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45309</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3865,13 +3865,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3908,14 +3903,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3929,11 +3924,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3970,14 +3965,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45428</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3989,13 +3984,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4032,14 +4022,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45309</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4051,13 +4041,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4094,14 +4079,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4113,13 +4098,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4156,14 +4136,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4181,7 +4161,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4218,14 +4198,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45810</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4280,14 +4260,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45161</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4305,7 +4285,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4342,14 +4322,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45561</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4347,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4409,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4466,14 +4446,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45684</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4466,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4523,14 +4503,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>44417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4542,13 +4522,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>10.1</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4585,14 +4560,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45309</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4604,8 +4579,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4642,14 +4622,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45810</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4667,7 +4647,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4704,14 +4684,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45174</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,11 +4705,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4766,14 +4746,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,11 +4767,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4808,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4833,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4870,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4909,8 +4889,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4947,14 +4932,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4966,8 +4951,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5004,14 +4994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45561</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5029,7 +5019,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5066,14 +5056,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5091,7 +5081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5153,7 +5143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5205,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5242,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,13 +5261,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5314,14 +5299,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5333,13 +5318,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5356,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5381,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5438,14 +5418,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5463,7 +5443,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5500,14 +5480,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5525,7 +5505,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5562,14 +5542,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5587,7 +5567,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5624,14 +5604,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5641,6 +5621,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -5681,14 +5666,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44970</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5706,7 +5691,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5743,14 +5728,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5768,7 +5753,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5805,14 +5790,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5830,7 +5815,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5867,14 +5852,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45958</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5892,7 +5877,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5929,14 +5914,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5954,7 +5939,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5991,14 +5976,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44803</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6016,7 +6001,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6053,14 +6038,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6072,13 +6057,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6115,14 +6095,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45958</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6120,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6177,14 +6157,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6202,7 +6182,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6239,14 +6219,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6258,13 +6238,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6301,14 +6276,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45771</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6326,7 +6301,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6363,14 +6338,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6388,7 +6363,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6425,14 +6400,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6444,8 +6419,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6482,14 +6462,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6507,7 +6487,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6544,14 +6524,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45785</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6549,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6606,14 +6586,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6625,13 +6605,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6668,14 +6643,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6689,11 +6664,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6730,14 +6705,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6751,11 +6726,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6792,14 +6767,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6813,11 +6788,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6854,14 +6829,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6875,11 +6850,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6916,14 +6891,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6941,7 +6916,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6978,14 +6953,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7003,7 +6978,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7040,14 +7015,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7061,11 +7036,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7102,14 +7077,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>46002.503125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7123,11 +7098,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7164,14 +7139,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7185,11 +7160,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7226,14 +7201,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7247,11 +7222,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7288,14 +7263,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7313,7 +7288,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7350,14 +7325,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45161</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7375,7 +7350,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7412,14 +7387,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7431,8 +7406,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7469,14 +7449,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45684</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7488,8 +7468,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7526,14 +7511,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7547,11 +7532,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>10.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7588,14 +7573,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7613,7 +7598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7650,14 +7635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7671,11 +7656,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7712,14 +7697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45561</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7722,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7774,14 +7759,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44417</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7793,8 +7778,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7831,14 +7821,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9394-2026</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46071.36576388889</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7856,7 +7846,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7893,14 +7883,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7912,8 +7902,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7950,14 +7945,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7975,7 +7970,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8012,14 +8007,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45174</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8037,7 +8032,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8074,14 +8069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8099,7 +8094,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8136,14 +8131,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45174</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8161,7 +8156,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8198,14 +8193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45428</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8217,8 +8212,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8255,14 +8255,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45771</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8276,11 +8276,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8317,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45785</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8441,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8648,11 +8648,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8751,14 +8751,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51149-2025</t>
+          <t>A 27330-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45947</v>
+        <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,19 +1023,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1047,15 +1047,112 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp
+Grangråticka
+Kopparspindling
+Tvillingspindling
+Frygisk spindling
+Rosenticka
+Skarp dropptaggsvamp
+Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51149-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45947</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Läderdoftande fingersvamp
 Svart taggsvamp
@@ -1067,125 +1164,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 51149-2025 artfynd.xlsx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 51149-2025 karta.png", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 51149-2025 FSC-klagomål.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 51149-2025 FSC-klagomål mail.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 51149-2025 tillsynsbegäran.docx", "A 51149-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 51149-2025 tillsynsbegäran mail.docx", "A 51149-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27330-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45812.60934027778</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Bitter taggsvamp
-Grangråticka
-Kopparspindling
-Tvillingspindling
-Frygisk spindling
-Rosenticka
-Skarp dropptaggsvamp
-Tallfingersvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 27330-2025 artfynd.xlsx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 27330-2025 karta.png", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 27330-2025 FSC-klagomål.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 27330-2025 FSC-klagomål mail.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 27330-2025 tillsynsbegäran.docx", "A 27330-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 27330-2025 tillsynsbegäran mail.docx", "A 27330-2025")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3949-2025</t>
+          <t>A 26681-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45684</v>
+        <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,14 +1302,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1318,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,15 +1332,105 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Nästrot
+Skogsknipprot
+Tibast
+Tvåblad
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3949-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Tvåblad
@@ -1345,123 +1440,28 @@
 Ängsnycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26681-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45810.42891203704</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Nästrot
-Skogsknipprot
-Tibast
-Tvåblad
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34798-2024</t>
+          <t>A 70017-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45526</v>
+        <v>44533</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,25 +1764,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>13.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1794,418 +1789,423 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gölgroda
+Trana
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58480-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45985.64805555555</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61693-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa
+Brandticka
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62278-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46006.63202546296</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Mosippa
+Knärot
+Rökfingersvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="U17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 34798-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 70017-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gölgroda
-Trana
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58480-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45985.64805555555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61693-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46002</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vedtrappmossa
-Brandticka
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62278-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46006.63202546296</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Mosippa
-Knärot
-Rökfingersvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,14 +2398,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,20 +2417,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2445,56 +2450,52 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45442</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,19 +2513,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>11.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2536,55 +2537,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44623</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,11 +2599,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2636,45 +2637,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,11 +2687,16 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>6.3</v>
+        <v>18.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2721,45 +2727,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,17 +2779,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2811,45 +2817,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>45442</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2873,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2876,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2894,52 +2900,52 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,26 +2957,21 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>18.6</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
@@ -2981,55 +2982,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,19 +3046,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>12.2</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44803</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3436,13 +3436,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3479,14 +3474,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3504,7 +3499,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3541,14 +3536,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45785</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3566,7 +3561,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3603,14 +3598,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44970</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3628,7 +3623,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3665,14 +3660,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45771</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3684,8 +3679,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45762</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3784,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45174</v>
+        <v>45309</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3803,13 +3803,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3846,14 +3841,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45309</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3865,8 +3860,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45810</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45428</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3984,8 +3984,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4022,14 +4027,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45309</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4041,8 +4046,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4079,14 +4089,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4098,8 +4108,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4136,14 +4151,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4161,7 +4176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,14 +4213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4223,7 +4238,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4260,14 +4275,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45161</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4285,7 +4300,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4322,14 +4337,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45561</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4384,14 +4399,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4409,7 +4424,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4446,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45684</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4465,8 +4480,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4503,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44417</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4522,8 +4542,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4560,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4585,7 +4610,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4622,14 +4647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45810</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4641,13 +4666,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4684,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45174</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4709,7 +4729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4746,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4767,11 +4787,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10.1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4808,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4833,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4870,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4891,11 +4911,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4932,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4951,13 +4971,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4994,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45561</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5019,7 +5034,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5056,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5081,7 +5096,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5118,14 +5133,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45762</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5143,7 +5158,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5180,14 +5195,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5201,11 +5216,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5242,14 +5257,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5261,8 +5276,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5299,14 +5319,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5318,8 +5338,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5356,14 +5381,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5381,7 +5406,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5418,14 +5443,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5443,7 +5468,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5480,14 +5505,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5505,7 +5530,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5542,14 +5567,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5567,7 +5592,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5604,14 +5629,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5629,7 +5654,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5666,14 +5691,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5691,7 +5716,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.4</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5728,14 +5753,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5753,7 +5778,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5790,14 +5815,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5809,13 +5834,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5852,14 +5872,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5877,7 +5897,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5914,14 +5934,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45309</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5933,13 +5953,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5976,14 +5991,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6001,7 +6016,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6038,14 +6053,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,8 +6072,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6095,14 +6115,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45958</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6120,7 +6140,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6157,14 +6177,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6182,7 +6202,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6219,14 +6239,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6238,8 +6258,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6276,14 +6301,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45771</v>
+        <v>45958</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6301,7 +6326,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6338,14 +6363,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6363,7 +6388,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6400,14 +6425,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6450,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6462,14 +6487,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6481,13 +6506,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6524,14 +6544,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45785</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6549,7 +6569,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6586,14 +6606,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>44970</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6605,8 +6625,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6643,14 +6668,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6668,7 +6693,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6705,14 +6730,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6730,7 +6755,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6767,14 +6792,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6792,7 +6817,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6829,14 +6854,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6854,7 +6879,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6891,14 +6916,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6912,11 +6937,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6953,14 +6978,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6972,13 +6997,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7015,14 +7035,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7036,11 +7056,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7077,14 +7097,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7098,11 +7118,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7146,7 +7166,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7201,14 +7221,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7226,7 +7246,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7263,14 +7283,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7284,11 +7304,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7325,14 +7345,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>46002.503125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7346,11 +7366,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7387,14 +7407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7408,11 +7428,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7449,14 +7469,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7470,11 +7490,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7511,14 +7531,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7536,7 +7556,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>10.2</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7573,14 +7593,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7598,7 +7618,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7635,14 +7655,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7656,11 +7676,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>10.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7697,14 +7717,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7742,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7759,14 +7779,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7784,7 +7804,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7821,14 +7841,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7846,7 +7866,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7883,14 +7903,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7928,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7945,14 +7965,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45161</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7970,7 +7990,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8007,14 +8027,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8026,13 +8046,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8069,14 +8084,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45684</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8088,13 +8103,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8131,14 +8141,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8152,11 +8162,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8193,14 +8203,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8214,7 +8224,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -8255,14 +8265,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8276,11 +8286,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8327,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45561</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8342,7 +8352,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8404,7 +8414,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8451,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8460,13 +8470,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8522,13 +8527,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9394-2026</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46071.36576388889</v>
+        <v>45174</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8751,14 +8751,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45174</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26681-2025</t>
+          <t>A 3949-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45810.42891203704</v>
+        <v>45684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,19 +1302,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1323,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1332,15 +1327,110 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Tvåblad
+Fläcknycklar
+Kärrknipprot
+Nattviol
+Ängsnycklar</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26681-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45810.42891203704</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Nästrot
@@ -1350,118 +1440,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3949-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Tvåblad
-Fläcknycklar
-Kärrknipprot
-Nattviol
-Ängsnycklar</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70017-2021</t>
+          <t>A 34798-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44533</v>
+        <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,20 +1764,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1789,423 +1794,418 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>3</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Tibast
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70017-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Trana
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 70017-2021 artfynd.xlsx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 70017-2021 karta.png", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 70017-2021 FSC-klagomål.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 70017-2021 FSC-klagomål mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 70017-2021 tillsynsbegäran.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 70017-2021 tillsynsbegäran mail.docx", "A 70017-2021")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 70017-2021 prioriterade fågelarter.docx", "A 70017-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 58480-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45985.64805555555</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tibast
 Vätteros</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58480-2025 artfynd.xlsx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58480-2025 karta.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58480-2025 karta knärot.png", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58480-2025 FSC-klagomål.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58480-2025 FSC-klagomål mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58480-2025 tillsynsbegäran.docx", "A 58480-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58480-2025 tillsynsbegäran mail.docx", "A 58480-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 61693-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46002</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Brandticka
 Sårläka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 61693-2025 artfynd.xlsx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 61693-2025 karta.png", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 61693-2025 FSC-klagomål.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 61693-2025 FSC-klagomål mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 61693-2025 tillsynsbegäran.docx", "A 61693-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 61693-2025 tillsynsbegäran mail.docx", "A 61693-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 62278-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46006.63202546296</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>6.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
 Rökfingersvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 62278-2025 artfynd.xlsx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 62278-2025 karta.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 62278-2025 karta knärot.png", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 62278-2025 FSC-klagomål.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 62278-2025 FSC-klagomål mail.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 62278-2025 tillsynsbegäran.docx", "A 62278-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 62278-2025 tillsynsbegäran mail.docx", "A 62278-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 34798-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Tibast
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 34798-2024 artfynd.xlsx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 34798-2024 karta.png", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 34798-2024 FSC-klagomål.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 34798-2024 FSC-klagomål mail.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 34798-2024 tillsynsbegäran.docx", "A 34798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 34798-2024 tillsynsbegäran mail.docx", "A 34798-2024")</f>
         <v/>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>45777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,14 +2398,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44623</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,25 +2417,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2450,52 +2445,56 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>45442</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,20 +2512,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2537,55 +2536,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>44623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2599,11 +2598,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2637,45 +2636,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,10 +2692,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18.6</v>
+        <v>11.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2727,45 +2726,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2779,21 +2778,21 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.2</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2817,45 +2816,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45442</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,25 +2866,20 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2897,55 +2891,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2957,20 +2951,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>18.6</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2982,59 +2981,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,14 +3041,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.3</v>
+        <v>12.2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 36216-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45561</v>
+        <v>45762</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 2184-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45428</v>
+        <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3493,13 +3493,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3536,14 +3531,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45785</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3561,7 +3556,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3598,14 +3593,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>44970</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3623,7 +3618,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3660,14 +3655,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45771</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3679,13 +3674,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3722,14 +3712,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45762</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3741,13 +3731,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3784,14 +3769,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45309</v>
+        <v>45161</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3803,8 +3788,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3841,14 +3831,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3866,7 +3856,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3903,14 +3893,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45810</v>
+        <v>45771</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3928,7 +3918,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3965,14 +3955,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45309</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3984,13 +3974,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4027,14 +4012,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,11 +4033,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.1</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4089,14 +4074,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4108,13 +4093,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4151,14 +4131,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43577-2025</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45911.64219907407</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4176,7 +4156,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4213,14 +4193,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45771</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4238,7 +4218,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4275,14 +4255,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45428</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4294,13 +4274,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4337,14 +4312,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43662-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45912.34446759259</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4362,7 +4337,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4399,14 +4374,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45785</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4424,7 +4399,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4461,14 +4436,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4523,14 +4498,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>45810</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,11 +4519,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4585,14 +4560,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,11 +4581,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4647,14 +4622,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4666,8 +4641,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4704,14 +4684,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4729,7 +4709,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4766,14 +4746,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 43662-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45912.34446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,11 +4767,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4808,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 43577-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45911.64219907407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4833,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4870,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4915,7 +4895,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4932,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,8 +4951,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5009,14 +4994,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5034,7 +5019,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5056,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5096,7 +5081,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5133,14 +5118,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5158,7 +5143,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5195,14 +5180,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5214,13 +5199,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5257,14 +5237,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,11 +5258,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5319,14 +5299,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5338,13 +5318,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5381,14 +5356,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5406,7 +5381,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5443,14 +5418,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5468,7 +5443,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5505,14 +5480,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45684</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,13 +5499,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5567,14 +5537,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5592,7 +5562,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5629,14 +5599,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5654,7 +5624,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5691,14 +5661,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5716,7 +5686,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5753,14 +5723,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5778,7 +5748,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5815,14 +5785,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5834,8 +5804,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5872,14 +5847,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5897,7 +5872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5934,14 +5909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2184-2024</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45309</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5953,8 +5928,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5991,14 +5971,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6016,7 +5996,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6053,14 +6033,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6078,7 +6058,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6115,14 +6095,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6120,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6177,14 +6157,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6202,7 +6182,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6239,14 +6219,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6264,7 +6244,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>11.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6301,14 +6281,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45958</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6326,7 +6306,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6363,14 +6343,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6384,11 +6364,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6425,14 +6405,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6446,11 +6426,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6487,14 +6467,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6504,6 +6484,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -6544,14 +6529,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6554,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6606,14 +6591,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44970</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6631,7 +6616,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6668,14 +6653,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6693,7 +6678,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6730,14 +6715,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6755,7 +6740,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6792,14 +6777,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6817,7 +6802,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6854,14 +6839,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6879,7 +6864,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6916,14 +6901,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36216-2022</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44803</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6941,7 +6926,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6978,14 +6963,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6997,8 +6982,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7035,14 +7025,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45958</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7060,7 +7050,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7097,14 +7087,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7122,7 +7112,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7159,14 +7149,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7180,11 +7170,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7221,14 +7211,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>45561</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7242,11 +7232,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7283,14 +7273,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7304,11 +7294,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7345,14 +7335,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46002.503125</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7366,11 +7356,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7407,14 +7397,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7428,11 +7418,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7469,14 +7459,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7490,11 +7480,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7531,14 +7521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>44417</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7550,13 +7540,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7593,14 +7578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45174</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7618,7 +7603,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7655,14 +7640,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7674,13 +7659,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7717,14 +7697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7742,7 +7722,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7779,14 +7759,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7804,7 +7784,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7841,14 +7821,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7866,7 +7846,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7903,14 +7883,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45561</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7928,7 +7908,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7965,14 +7945,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45161</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7986,11 +7966,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8027,14 +8007,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8046,8 +8026,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8084,14 +8069,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45684</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8103,8 +8088,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8141,14 +8131,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>46002.503125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8162,11 +8152,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8203,14 +8193,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>46044.626875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8224,11 +8214,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8265,14 +8255,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9394-2026</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46071.36576388889</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8286,11 +8276,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8327,14 +8317,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45561</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8352,7 +8342,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8389,14 +8379,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8414,7 +8404,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8451,14 +8441,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44417</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,8 +8460,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>10.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8508,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,8 +8522,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45174</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8751,14 +8751,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45174</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3949-2025</t>
+          <t>A 26681-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45684</v>
+        <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,14 +1302,19 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1318,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1327,15 +1332,105 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Nästrot
+Skogsknipprot
+Tibast
+Tvåblad
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3949-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Tvåblad
@@ -1345,123 +1440,28 @@
 Ängsnycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 3949-2025 artfynd.xlsx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 3949-2025 karta.png", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 3949-2025 FSC-klagomål.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 3949-2025 FSC-klagomål mail.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 3949-2025 tillsynsbegäran.docx", "A 3949-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 3949-2025 tillsynsbegäran mail.docx", "A 3949-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26681-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45810.42891203704</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Nästrot
-Skogsknipprot
-Tibast
-Tvåblad
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 26681-2025 artfynd.xlsx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 26681-2025 karta.png", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 26681-2025 FSC-klagomål.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 26681-2025 FSC-klagomål mail.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 26681-2025 tillsynsbegäran.docx", "A 26681-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 26681-2025 tillsynsbegäran mail.docx", "A 26681-2025")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44533</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,14 +2212,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21007-2025</t>
+          <t>A 58485-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45777</v>
+        <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,19 +2237,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2261,151 +2261,151 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 21007-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVKARLEBY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Tibast</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21007-2025 artfynd.xlsx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21007-2025 karta.png", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21007-2025 FSC-klagomål.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21007-2025 FSC-klagomål mail.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21007-2025 tillsynsbegäran.docx", "A 21007-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21007-2025 tillsynsbegäran mail.docx", "A 21007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 58485-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45985.65565972222</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVKARLEBY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 58485-2025 artfynd.xlsx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 58485-2025 karta.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/knärot/A 58485-2025 karta knärot.png", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 58485-2025 FSC-klagomål.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 58485-2025 FSC-klagomål mail.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 58485-2025 tillsynsbegäran.docx", "A 58485-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 58485-2025 tillsynsbegäran mail.docx", "A 58485-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19300-2024</t>
+          <t>A 39902-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45428.70128472222</v>
+        <v>45891.63597222222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,20 +2417,25 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2442,59 +2447,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21700-2024</t>
+          <t>A 19300-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45442</v>
+        <v>45428.70128472222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,16 +2507,11 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2546,45 +2542,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Töcknig trymal</t>
+          <t>Kricka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 19300-2024 artfynd.xlsx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 19300-2024 karta.png", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 19300-2024 FSC-klagomål.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 19300-2024 FSC-klagomål mail.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 19300-2024 tillsynsbegäran.docx", "A 19300-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 19300-2024 tillsynsbegäran mail.docx", "A 19300-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/fåglar/A 19300-2024 prioriterade fågelarter.docx", "A 19300-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 10455-2022</t>
+          <t>A 47207-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44623</v>
+        <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,11 +2598,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2636,45 +2636,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Sandviol</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 39902-2025</t>
+          <t>A 21700-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45891.63597222222</v>
+        <v>45442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,20 +2692,20 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -2716,55 +2716,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Töcknig trymal</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 39902-2025 artfynd.xlsx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 21700-2024 artfynd.xlsx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 39902-2025 karta.png", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 21700-2024 karta.png", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 39902-2025 FSC-klagomål.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 21700-2024 FSC-klagomål.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 39902-2025 FSC-klagomål mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 21700-2024 FSC-klagomål mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 39902-2025 tillsynsbegäran.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 21700-2024 tillsynsbegäran.docx", "A 21700-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 39902-2025 tillsynsbegäran mail.docx", "A 39902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 21700-2024 tillsynsbegäran mail.docx", "A 21700-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 47207-2025</t>
+          <t>A 10455-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45930.37263888889</v>
+        <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,11 +2778,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2816,45 +2816,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Sandviol</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 47207-2025 artfynd.xlsx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 10455-2022 artfynd.xlsx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 47207-2025 karta.png", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 10455-2022 karta.png", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 47207-2025 FSC-klagomål.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 10455-2022 FSC-klagomål.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 47207-2025 FSC-klagomål mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 10455-2022 FSC-klagomål mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 47207-2025 tillsynsbegäran.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 10455-2022 tillsynsbegäran.docx", "A 10455-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 47207-2025 tillsynsbegäran mail.docx", "A 47207-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 10455-2022 tillsynsbegäran mail.docx", "A 10455-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 9521-2025</t>
+          <t>A 59993-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45715.56259259259</v>
+        <v>45993.56505787037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,11 +2866,16 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>18.6</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2901,45 +2906,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59993-2025</t>
+          <t>A 4132-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45993.56505787037</v>
+        <v>46044.62596064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,17 +2958,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>18.6</v>
+        <v>12.2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2991,45 +2996,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Dubbelnycklar</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 59993-2025 artfynd.xlsx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 59993-2025 karta.png", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 59993-2025 FSC-klagomål.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 59993-2025 FSC-klagomål mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 59993-2025 tillsynsbegäran.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 59993-2025 tillsynsbegäran mail.docx", "A 59993-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4132-2026</t>
+          <t>A 9521-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46044.62596064815</v>
+        <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,19 +3046,14 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>12.2</v>
+        <v>6.3</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3081,31 +3081,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Dubbelnycklar</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 4132-2026 artfynd.xlsx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/artfynd/A 9521-2025 artfynd.xlsx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 4132-2026 karta.png", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/kartor/A 9521-2025 karta.png", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 4132-2026 FSC-klagomål.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomål/A 9521-2025 FSC-klagomål.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 4132-2026 FSC-klagomål mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/klagomålsmail/A 9521-2025 FSC-klagomål mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 4132-2026 tillsynsbegäran.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsyn/A 9521-2025 tillsynsbegäran.docx", "A 9521-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 4132-2026 tillsynsbegäran mail.docx", "A 4132-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0319/tillsynsmail/A 9521-2025 tillsynsbegäran mail.docx", "A 9521-2025")</f>
         <v/>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,14 +3355,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18451-2025</t>
+          <t>A 19303-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45762</v>
+        <v>45428.70386574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,13 +3374,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3424,7 +3419,7 @@
         <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3474,14 +3469,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19303-2024</t>
+          <t>A 38226-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45428.70386574074</v>
+        <v>45161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3493,8 +3488,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8031-2025</t>
+          <t>A 15739-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45707.59112268518</v>
+        <v>45748.54612268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3552,11 +3552,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3593,14 +3593,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7286-2023</t>
+          <t>A 26670-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44970</v>
+        <v>45810.41489583333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26815-2022</t>
+          <t>A 45372-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44740.44644675926</v>
+        <v>45576.51116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3674,8 +3674,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3712,14 +3717,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14590-2023</t>
+          <t>A 27742-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45013.54621527778</v>
+        <v>45815.53724537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3731,8 +3736,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3769,14 +3779,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38226-2023</t>
+          <t>A 27741-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45161</v>
+        <v>45815.5346875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3794,7 +3804,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3831,14 +3841,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41272-2023</t>
+          <t>A 16990-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45174</v>
+        <v>44676.6122337963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3856,7 +3866,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3893,14 +3903,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19740-2025</t>
+          <t>A 28670-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45771</v>
+        <v>45819.67130787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3918,7 +3928,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3955,14 +3965,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2183-2024</t>
+          <t>A 28668-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45309</v>
+        <v>45819.66650462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3974,8 +3984,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4012,14 +4027,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45372-2024</t>
+          <t>A 30483-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45576.51116898148</v>
+        <v>45828.68988425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4037,7 +4052,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4074,14 +4089,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9533-2025</t>
+          <t>A 41615-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45715.57082175926</v>
+        <v>45901.69556712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4093,8 +4108,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4131,14 +4151,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16990-2022</t>
+          <t>A 26664-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44676.6122337963</v>
+        <v>45810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4156,7 +4176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4193,14 +4213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19697-2025</t>
+          <t>A 14004-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45771</v>
+        <v>45740.2997337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4214,11 +4234,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>10.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4255,14 +4275,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19304-2024</t>
+          <t>A 30944-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45428</v>
+        <v>45832.41182870371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4274,8 +4294,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4312,14 +4337,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19862-2025</t>
+          <t>A 30936-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771.53560185185</v>
+        <v>45832.40586805555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4333,11 +4358,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4374,14 +4399,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22223-2025</t>
+          <t>A 41847-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45785</v>
+        <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4399,7 +4424,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4436,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41615-2025</t>
+          <t>A 32221-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45901.69556712963</v>
+        <v>45835.5909837963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4461,7 +4486,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4498,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26664-2025</t>
+          <t>A 32203-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45810</v>
+        <v>45835.57951388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4523,7 +4548,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4560,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14004-2025</t>
+          <t>A 32186-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45740.2997337963</v>
+        <v>45835.5667824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4581,11 +4606,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.1</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4622,14 +4647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41847-2025</t>
+          <t>A 32187-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45902.75265046296</v>
+        <v>45835.56949074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4647,7 +4672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4684,14 +4709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24591-2025</t>
+          <t>A 32212-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45798.53666666667</v>
+        <v>45835.58509259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4709,7 +4734,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4753,7 +4778,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4815,7 +4840,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4870,14 +4895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25330-2025</t>
+          <t>A 45033-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45800.59114583334</v>
+        <v>45918.70299768518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4895,7 +4920,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4932,14 +4957,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25264-2025</t>
+          <t>A 45512-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45800.5334375</v>
+        <v>45922.58106481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4957,7 +4982,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4994,14 +5019,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45033-2025</t>
+          <t>A 46510-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45918.70299768518</v>
+        <v>45925.92368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5013,13 +5038,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5056,14 +5076,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45512-2025</t>
+          <t>A 36626-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45922.58106481482</v>
+        <v>45870.66732638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5081,7 +5101,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5118,14 +5138,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11553-2021</t>
+          <t>A 46335-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44264.48725694444</v>
+        <v>45925.46199074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5137,13 +5157,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5180,14 +5195,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46510-2025</t>
+          <t>A 8031-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45925.92368055556</v>
+        <v>45707.59112268518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5199,8 +5214,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5237,14 +5257,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15739-2025</t>
+          <t>A 7286-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45748.54612268518</v>
+        <v>44970</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5258,11 +5278,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5299,14 +5319,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46335-2025</t>
+          <t>A 26815-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45925.46199074074</v>
+        <v>44740.44644675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5319,7 +5339,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5356,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26670-2025</t>
+          <t>A 48460-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45810.41489583333</v>
+        <v>45935.94372685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5381,7 +5401,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5418,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43285-2023</t>
+          <t>A 19740-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45183.5630787037</v>
+        <v>45771</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5443,7 +5463,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5480,14 +5500,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3950-2025</t>
+          <t>A 50398-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45684</v>
+        <v>45944.62854166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5499,8 +5519,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5537,14 +5562,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27742-2025</t>
+          <t>A 50371-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45815.53724537037</v>
+        <v>45944.58696759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5599,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27741-2025</t>
+          <t>A 50113-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45815.5346875</v>
+        <v>45943.54452546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5624,7 +5649,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5661,14 +5686,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48460-2025</t>
+          <t>A 50138-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45935.94372685185</v>
+        <v>45943.5653125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5686,7 +5711,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5723,14 +5748,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28670-2025</t>
+          <t>A 50869-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45819.67130787037</v>
+        <v>45946.60259259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5748,7 +5773,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>11.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5785,14 +5810,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28668-2025</t>
+          <t>A 51238-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819.66650462963</v>
+        <v>45947.69753472223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5810,7 +5835,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5847,14 +5872,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50398-2025</t>
+          <t>A 51237-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45944.62854166667</v>
+        <v>45947.69307870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5872,7 +5897,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5909,14 +5934,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50371-2025</t>
+          <t>A 19862-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45944.58696759259</v>
+        <v>45771.53560185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5930,11 +5955,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5971,14 +5996,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50113-2025</t>
+          <t>A 52477-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45943.54452546296</v>
+        <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5996,7 +6021,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6033,14 +6058,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8030-2025</t>
+          <t>A 52498-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45707.59064814815</v>
+        <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6058,7 +6083,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6095,14 +6120,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50138-2025</t>
+          <t>A 53173-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45943.5653125</v>
+        <v>45958.51738425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6120,7 +6145,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6157,14 +6182,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30483-2025</t>
+          <t>A 53184-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45828.68988425926</v>
+        <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6182,7 +6207,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6219,14 +6244,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50869-2025</t>
+          <t>A 56861-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45946.60259259259</v>
+        <v>45978.50824074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6244,7 +6269,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.4</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6281,14 +6306,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51238-2025</t>
+          <t>A 41272-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45947.69753472223</v>
+        <v>45174</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6306,7 +6331,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6343,14 +6368,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30944-2025</t>
+          <t>A 2183-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.41182870371</v>
+        <v>45309</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6362,13 +6387,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6405,14 +6425,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30936-2025</t>
+          <t>A 58168-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45832.40586805555</v>
+        <v>45982.72024305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6426,11 +6446,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6467,14 +6487,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51237-2025</t>
+          <t>A 57734-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45947.69307870371</v>
+        <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6492,7 +6512,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6529,14 +6549,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32221-2025</t>
+          <t>A 58497-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45835.5909837963</v>
+        <v>45985.67912037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6554,7 +6574,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6591,14 +6611,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32203-2025</t>
+          <t>A 19304-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45835.57951388889</v>
+        <v>45428</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6610,13 +6630,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6653,14 +6668,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52477-2025</t>
+          <t>A 60256-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45954.46980324074</v>
+        <v>45994.60216435185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6672,13 +6687,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6715,14 +6725,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32186-2025</t>
+          <t>A 60083-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45835.5667824074</v>
+        <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6740,7 +6750,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6777,14 +6787,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32187-2025</t>
+          <t>A 60842-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45835.56949074074</v>
+        <v>45999.48721064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6802,7 +6812,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6839,14 +6849,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52498-2025</t>
+          <t>A 60829-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45954.49314814815</v>
+        <v>45999.46523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6864,7 +6874,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6901,14 +6911,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32212-2025</t>
+          <t>A 61694-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45835.58509259259</v>
+        <v>46002.52361111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6922,7 +6932,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6963,14 +6973,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53173-2025</t>
+          <t>A 61691-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45958.51738425926</v>
+        <v>46002.51318287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6984,11 +6994,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7025,14 +7035,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 53184-2025</t>
+          <t>A 4131-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45958</v>
+        <v>46044.62451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7046,11 +7056,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46113-2023</t>
+          <t>A 61685-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45196.54938657407</v>
+        <v>46002.503125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7108,11 +7118,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7149,14 +7159,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56861-2025</t>
+          <t>A 4133-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45978.50824074074</v>
+        <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7170,11 +7180,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7211,14 +7221,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41979-2024</t>
+          <t>A 4134-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45561</v>
+        <v>46044.6280787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7232,11 +7242,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7273,14 +7283,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58168-2025</t>
+          <t>A 11553-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45982.72024305556</v>
+        <v>44264.48725694444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7335,14 +7345,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57734-2025</t>
+          <t>A 43285-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45981.51148148148</v>
+        <v>45183.5630787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7397,14 +7407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36626-2025</t>
+          <t>A 3950-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45870.66732638889</v>
+        <v>45684</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7416,13 +7426,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7459,14 +7464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58497-2025</t>
+          <t>A 63004-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45985.67912037037</v>
+        <v>46009.56873842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7484,7 +7489,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7521,14 +7526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39791-2021</t>
+          <t>A 63183-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44417</v>
+        <v>46010.42908564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7540,8 +7545,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7578,14 +7588,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41276-2023</t>
+          <t>A 62938-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45174</v>
+        <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7603,7 +7613,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.3</v>
+        <v>10.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7640,14 +7650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60256-2025</t>
+          <t>A 63341-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45994.60216435185</v>
+        <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7659,8 +7669,13 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7697,14 +7712,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60083-2025</t>
+          <t>A 63365-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45993.69733796296</v>
+        <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7722,7 +7737,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7759,14 +7774,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60842-2025</t>
+          <t>A 8030-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45999.48721064815</v>
+        <v>45707.59064814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7784,7 +7799,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7821,14 +7836,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60829-2025</t>
+          <t>A 61839-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45999.46523148148</v>
+        <v>46003.35768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7846,7 +7861,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7883,14 +7898,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41929-2024</t>
+          <t>A 46113-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45561</v>
+        <v>45196.54938657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7923,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7945,14 +7960,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61694-2025</t>
+          <t>A 9394-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46002.52361111111</v>
+        <v>46071.36576388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7966,11 +7981,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8007,14 +8022,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61691-2025</t>
+          <t>A 41979-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.51318287037</v>
+        <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8028,11 +8043,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8069,14 +8084,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4131-2026</t>
+          <t>A 1673-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46044.62451388889</v>
+        <v>46034.56863425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8090,11 +8105,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8131,14 +8146,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61685-2025</t>
+          <t>A 39791-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46002.503125</v>
+        <v>44417</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8150,13 +8165,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8193,14 +8203,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4133-2026</t>
+          <t>A 41276-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46044.626875</v>
+        <v>45174</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8214,11 +8224,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8255,14 +8265,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4134-2026</t>
+          <t>A 41929-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46044.6280787037</v>
+        <v>45561</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8276,11 +8286,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8317,14 +8327,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63004-2025</t>
+          <t>A 18451-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46009.56873842593</v>
+        <v>45762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8342,7 +8352,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8379,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63183-2025</t>
+          <t>A 14590-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46010.42908564815</v>
+        <v>45013.54621527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,13 +8408,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8441,14 +8446,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62938-2025</t>
+          <t>A 9533-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46009.42092592592</v>
+        <v>45715.57082175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8460,13 +8465,8 @@
           <t>ÄLVKARLEBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>10.2</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 63341-2025</t>
+          <t>A 19697-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46010.65505787037</v>
+        <v>45771</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63365-2025</t>
+          <t>A 22223-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46010.70717592593</v>
+        <v>45785</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8627,14 +8627,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61839-2025</t>
+          <t>A 24591-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46003.35768518518</v>
+        <v>45798.53666666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 9394-2026</t>
+          <t>A 25330-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46071.36576388889</v>
+        <v>45800.59114583334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8751,14 +8751,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1673-2026</t>
+          <t>A 25264-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46034.56863425926</v>
+        <v>45800.5334375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44533</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44970</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45771</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45174</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45309</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45428</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45684</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>46071.36576388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>44417</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45174</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45561</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45771</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45785</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt ÄLVKARLEBY.xlsx
+++ b/Översikt ÄLVKARLEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45828.75157407407</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44285</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>45771</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>45812.60934027778</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>45947</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45810.42891203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45684</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45925.91729166666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45684</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44377</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45526</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44533</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45985.64805555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>46006.63202546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45985.65565972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45777</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45891.63597222222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>45428.70128472222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45930.37263888889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45993.56505787037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>46044.62596064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45715.56259259259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44750</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45428.70386574074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45309</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45748.54612268518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45810.41489583333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45576.51116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45815.53724537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45815.5346875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44676.6122337963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45819.67130787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45819.66650462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45828.68988425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45901.69556712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45810</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45740.2997337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45832.41182870371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45832.40586805555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45902.75265046296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45835.5909837963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45835.57951388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45835.5667824074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>45835.56949074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45835.58509259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45912.34446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45911.64219907407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>45918.70299768518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45922.58106481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>45925.92368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45870.66732638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45925.46199074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45707.59112268518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44970</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44740.44644675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45935.94372685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45771</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45944.62854166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45944.58696759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45943.54452546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45943.5653125</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45946.60259259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45947.69753472223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45947.69307870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45771.53560185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>45954.46980324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45954.49314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45958.51738425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45978.50824074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45174</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45309</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45982.72024305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>45981.51148148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>45985.67912037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45428</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45994.60216435185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45993.69733796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45999.48721064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45999.46523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>46002.52361111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>46002.51318287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>46044.62451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46002.503125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>46044.626875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>46044.6280787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44264.48725694444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45183.5630787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45684</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>46009.56873842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>46010.42908564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>46009.42092592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>46010.65505787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>46010.70717592593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45707.59064814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>46003.35768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45196.54938657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>46071.36576388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>46034.56863425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>44417</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45174</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45561</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45013.54621527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45715.57082175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45771</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45785</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45798.53666666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45800.59114583334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45800.5334375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
